--- a/biology/Botanique/Laubertia/Laubertia.xlsx
+++ b/biology/Botanique/Laubertia/Laubertia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Laubertia est un genre de plantes à fleurs de la famille des Apocynaceae. Il a été décrit pour la première fois en 1844. Les espèces sont originaires du Mexique, d'Amérique centrale et d'Amérique du Sud[2],[3],[4],[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laubertia est un genre de plantes à fleurs de la famille des Apocynaceae. Il a été décrit pour la première fois en 1844. Les espèces sont originaires du Mexique, d'Amérique centrale et d'Amérique du Sud.
 Le nom de Laubertia a été donné en hommage au pharmacien franco-italien Carlo Lauberg (1732-1834), membre de l'académie des sciences française et qui a consacré la fin de sa vie à des recherches sur la Quinquina.
 </t>
         </is>
@@ -512,21 +524,23 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Laubertia boissieri A. DC.  - Venezuela, Colombie, Équateur, Pérou, Bolivie
 Laubertia contorta (M. Martens &amp; Galeotti) Woodson - Mexique, du Chiapas au nord de l'état de Sinaloa et de San Luis Potosí
 Laubertia peninsularis Woodson - Belize
-Selon Catalogue of Life                                   (29 octobre 2018)[6] et The Plant List            (29 octobre 2018)[7] :
+Selon Catalogue of Life                                   (29 octobre 2018) et The Plant List            (29 octobre 2018) :
 Laubertia boissieri A.DC.
 Laubertia contorta (M.Martens &amp; Galeotti) Woodson
 Laubertia peninsularis Woodson
-Selon World Checklist of Selected Plant Families (WCSP)  (29 octobre 2018)[8] :
+Selon World Checklist of Selected Plant Families (WCSP)  (29 octobre 2018) :
 Laubertia boissieri A.DC. (1844)
 Laubertia brasiliensis J.F.Morales (2017)
 Laubertia contorta (M.Martens &amp; Galeotti) Woodson (1938)
 Laubertia peninsularis Woodson (1936)
-Selon Tropicos                                           (29 octobre 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (29 octobre 2018) (Attention liste brute contenant possiblement des synonymes) :
 Laubertia boissieri A. DC.
 Laubertia brasiliensis J.F. Morales
 Laubertia contorta (M. Martens &amp; Galeotti) Woodson
